--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4579.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4579.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4579</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hasan Ali</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>18/08/2016</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,7 +760,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>04/09/2016</t>
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -796,7 +859,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>02/10/2016</t>
@@ -804,7 +866,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -844,7 +906,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>05/10/2016</t>
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -944,7 +1005,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>15/01/2017</t>
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -992,7 +1052,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>19/01/2017</t>
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1052,7 +1111,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1104,7 +1163,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1144,7 +1203,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>07/04/2017</t>
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1192,7 +1250,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>09/04/2017</t>
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1240,7 +1297,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>11/04/2017</t>
@@ -1248,7 +1304,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1340,7 +1396,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>07/06/2017</t>
@@ -1348,7 +1403,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1388,7 +1443,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>12/06/2017</t>
@@ -1396,7 +1450,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1436,7 +1490,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -1444,7 +1497,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1484,7 +1537,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>18/06/2017</t>
@@ -1492,7 +1544,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1544,7 +1596,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1596,7 +1648,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1636,7 +1688,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>18/10/2017</t>
@@ -1644,7 +1695,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1684,7 +1735,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>20/10/2017</t>
@@ -1692,7 +1742,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1732,7 +1782,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>23/10/2017</t>
@@ -1740,7 +1789,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1780,7 +1829,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>06/01/2018</t>
@@ -1788,7 +1836,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1840,7 +1888,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1892,7 +1940,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1944,7 +1992,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1996,7 +2044,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4172</t>
+          <t>4172</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2036,7 +2084,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>16/07/2018</t>
@@ -2044,7 +2091,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4174</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2084,7 +2131,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>22/07/2018</t>
@@ -2092,7 +2138,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4178</t>
+          <t>4178</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2132,7 +2178,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>16/09/2018</t>
@@ -2140,7 +2185,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4194</t>
+          <t>4194</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2192,7 +2237,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2244,7 +2289,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2296,7 +2341,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2348,7 +2393,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2400,7 +2445,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2440,7 +2485,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>09/11/2018</t>
@@ -2448,7 +2492,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2500,7 +2544,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2540,7 +2584,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>19/01/2019</t>
@@ -2548,7 +2591,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2600,7 +2643,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4238</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2652,7 +2695,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2692,7 +2735,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -2700,7 +2742,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2752,7 +2794,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2804,7 +2846,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2856,7 +2898,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2908,7 +2950,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2960,7 +3002,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3012,7 +3054,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3064,7 +3106,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3104,7 +3146,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>16/06/2019</t>
@@ -3112,7 +3153,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3164,7 +3205,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4460</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3216,7 +3257,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4472</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3268,7 +3309,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4473</t>
+          <t>4473</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3320,7 +3361,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4476</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3372,7 +3413,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3412,7 +3453,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>08/06/2022</t>
@@ -3420,7 +3460,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3472,7 +3512,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3511,7 +3551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3533,7 +3573,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3570,7 +3610,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3921</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3607,7 +3647,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3644,7 +3684,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3681,7 +3721,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3718,7 +3758,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3755,7 +3795,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3939</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3792,7 +3832,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3943</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3829,7 +3869,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3944</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3866,7 +3906,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3903,7 +3943,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3940,7 +3980,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3977,7 +4017,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4014,7 +4054,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4051,7 +4091,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4017</t>
+          <t>4017</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4088,7 +4128,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4018</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4125,7 +4165,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4019</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4162,7 +4202,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4199,7 +4239,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4236,7 +4276,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4273,7 +4313,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4310,7 +4350,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4050</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4347,7 +4387,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4384,7 +4424,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4421,7 +4461,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4458,7 +4498,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4495,7 +4535,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4532,7 +4572,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4569,7 +4609,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4606,7 +4646,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4643,7 +4683,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4680,7 +4720,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4172</t>
+          <t>4172</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4717,7 +4757,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4174</t>
+          <t>4174</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4754,7 +4794,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4178</t>
+          <t>4178</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4791,7 +4831,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4194</t>
+          <t>4194</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4828,7 +4868,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4197</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4865,7 +4905,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4902,7 +4942,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4201</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4939,7 +4979,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4976,7 +5016,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5013,7 +5053,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5050,7 +5090,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5087,7 +5127,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4238</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5124,7 +5164,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5161,7 +5201,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5198,7 +5238,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5235,7 +5275,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5272,7 +5312,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5309,7 +5349,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4304</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5346,7 +5386,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5383,7 +5423,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5420,7 +5460,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4324</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5457,7 +5497,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4460</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5494,7 +5534,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4472</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5531,7 +5571,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4473</t>
+          <t>4473</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5568,7 +5608,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4476</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5605,7 +5645,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5642,7 +5682,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5679,7 +5719,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -5705,6 +5745,563 @@
       <c r="G59" t="inlineStr">
         <is>
           <t>2/29</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4238</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.06%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4241</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4287</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4292</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.11%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.29%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3.70%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.95%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12.03%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4472</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4.26%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4473</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15.90%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4476</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.21%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.89%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.97%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4579.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4579.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5805,10 +5806,6 @@
           <t>4227</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5824,9 +5821,6 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5899,10 +5893,6 @@
           <t>4287</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5945,15 +5935,481 @@
           <t>4294</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.29%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3.70%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.95%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12.03%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4472</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4.26%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4473</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15.90%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4476</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.21%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.89%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.97%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4223</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4238</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4241</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4292</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5961,27 +6417,14 @@
           <t>4297</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>9</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.29%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -5991,27 +6434,14 @@
           <t>4300</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>9</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.70%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6021,29 +6451,12 @@
           <t>4304</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.95%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6053,13 +6466,6 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6067,27 +6473,14 @@
           <t>4319</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>8</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>12.03%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6097,15 +6490,14 @@
           <t>4324</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6115,27 +6507,14 @@
           <t>4460</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>8</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
           <t>10.00%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
@@ -6145,29 +6524,12 @@
           <t>4472</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.26%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6175,27 +6537,14 @@
           <t>4473</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>9</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>15.90%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -6205,27 +6554,14 @@
           <t>4476</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>6</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.21%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -6235,29 +6571,12 @@
           <t>4564</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.89%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6267,13 +6586,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6281,27 +6593,14 @@
           <t>4592</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>10</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.97%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4579.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4579.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5806,6 +5805,10 @@
           <t>4227</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5821,6 +5824,9 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5893,6 +5899,10 @@
           <t>4287</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5935,6 +5945,10 @@
           <t>4294</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6037,6 +6051,10 @@
           <t>4308</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6082,6 +6100,9 @@
       <c r="B14" t="n">
         <v>9</v>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6244,6 +6265,10 @@
           <t>4586</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -6277,330 +6302,6 @@
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4223</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4225</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4237</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4238</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4241</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4292</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4294</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4297</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4304</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4319</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4324</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4460</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4472</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4473</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4476</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4564</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4592</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>20.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4579.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4579.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>18/08/2016</t>
@@ -760,6 +760,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>04/09/2016</t>
@@ -859,6 +860,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>02/10/2016</t>
@@ -906,6 +908,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>05/10/2016</t>
@@ -1005,6 +1008,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>15/01/2017</t>
@@ -1052,6 +1056,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>19/01/2017</t>
@@ -1203,6 +1208,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>07/04/2017</t>
@@ -1250,6 +1256,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>09/04/2017</t>
@@ -1297,6 +1304,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>11/04/2017</t>
@@ -1396,6 +1404,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>07/06/2017</t>
@@ -1443,6 +1452,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>12/06/2017</t>
@@ -1490,6 +1500,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -1537,6 +1548,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>18/06/2017</t>
@@ -1688,6 +1700,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>18/10/2017</t>
@@ -1735,6 +1748,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>20/10/2017</t>
@@ -1782,6 +1796,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>23/10/2017</t>
@@ -1829,6 +1844,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>06/01/2018</t>
@@ -2084,6 +2100,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>16/07/2018</t>
@@ -2131,6 +2148,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>22/07/2018</t>
@@ -2178,6 +2196,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>16/09/2018</t>
@@ -2485,6 +2504,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>09/11/2018</t>
@@ -2584,6 +2604,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>19/01/2019</t>
@@ -2735,6 +2756,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -3146,6 +3168,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>16/06/2019</t>
@@ -3453,6 +3476,7 @@
           <t>59</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>08/06/2022</t>
@@ -5751,561 +5775,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4227</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4237</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4238</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>29.06%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4241</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.32%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4287</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4292</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.11%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4294</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4297</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.29%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.70%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4304</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.95%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4319</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>12.03%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4324</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4460</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4472</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.26%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4473</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>15.90%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4476</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.21%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4564</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.89%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4592</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>10</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.97%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>